--- a/similarities/split_global/harmonic_similarity_timestamps_322.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_322.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>['C', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>['G', 'C', 'C:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:18.565000', '0:01:27.795000')]</t>
+          <t>('0:00:10.675000', '0:00:17.915000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:32.746870', '0:01:36.589773')]</t>
+          <t>('0:00:28.049727', '0:00:32.566009')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=78.565']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=10.675</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.74687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=28.049727</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:17.900000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=17.9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:01:23.460000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:00:45.720000', '0:00:52.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000')]</t>
+          <t>('0:00:56.800000', '0:01:01.480000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.100000', '0:00:12.860000')]</t>
+          <t>('0:01:38.560000', '0:01:51.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=56.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=6.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:02:23.500000', '0:02:56.780000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:00.820000', '0:00:44.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:58.450000', '0:01:05.210000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:32.210000', '0:00:35.480000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=58.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=32.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'A:dim7'], ['F:7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:dim7'], ['D:7', 'G:7', 'C'], ['G:7', 'C:7', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.770000', '0:00:03.220000'), ('0:00:04.830000', '0:00:07.280000'), ('0:01:25.940000', '0:01:28.280000')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:37.410000', '0:01:39.720000'), ('0:00:07.470000', '0:00:12.620000'), ('0:01:43.180000', '0:01:46.060000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83', 'https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=85.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=97.41', 'https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=7.47', 'https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=103.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:21.280000', '0:00:41.800000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C'], ['F', 'F:min', 'C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['Bb', 'Bb:min', 'F']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000'), ('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:05.558652'), ('0:00:21.278561', '0:00:26.514661')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=21.278561']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:07.700000', '0:00:19.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:45.970000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.980000', '0:00:18.400000')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:00:09.060000', '0:00:13.370000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=12.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.513843', '0:00:26.514661')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.520000', '0:00:13.740000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=3.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
